--- a/result.xlsx
+++ b/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeongsu Jang\Desktop\2018-1\paper\RBF+pageRank\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeongsu Jang\Desktop\2018-1\paper\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4AD2A322-57DF-4FB0-A750-FC19B5B63FDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98BCC40C-7647-47E6-94D8-73B1D7D7034E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10872" windowHeight="8964" xr2:uid="{B81AA693-9A43-47FB-A722-E2EE236DC226}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="84">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,22 +311,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">** for문 while문 혹은 if문의 조건이 바뀌었을시, for문과 if문 안에서 실행되는 코드를 모두 버그가 포함된 코드로 설정함.
-** pagerank의 가중치를 rbf에 대입할때, 기존의 1과 0의 커버리지 정보에, pagerank의 가중치를 곱함. 
- </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>코드 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBFtime</t>
+  </si>
+  <si>
+    <t>papertime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -406,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -443,17 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -502,75 +492,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -758,12 +679,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -783,25 +701,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -813,97 +728,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,127 +1123,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1D4F06-CEB0-4A03-B164-C98493488BAF}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="42"/>
     <col min="11" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="35"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="37" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="AA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="6" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="7" t="s">
+      <c r="V2" s="37"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="40"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1362,66 +1275,72 @@
       <c r="G3">
         <v>13.1067961165</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="42">
         <v>286.52</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="42">
         <v>46.04</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <f>SUM(L12:L17)</f>
         <v>1096.4421592064521</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <f>SUM(M12:M17)</f>
         <v>931.84972708631915</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <f>(L3-M3)*100/L3</f>
         <v>15.011501586117079</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10">
+      <c r="O3" s="9"/>
+      <c r="P3" s="8">
         <f>SUM(P12:P17)</f>
         <v>1445.3083489155881</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="8">
         <f>SUM(Q12:Q17)</f>
         <v>1221.5826338559318</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <f>(P3-Q3)*100/P3</f>
         <v>15.47944528428949</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="10">
+      <c r="S3" s="9"/>
+      <c r="T3" s="8">
         <f>SUM(T12:T17)</f>
         <v>1270.8752540610201</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="8">
         <f>SUM(U12:U17)</f>
         <v>1076.7161804711254</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="9">
         <f>(T3-U3)*100/T3</f>
         <v>15.277587077840156</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="10">
-        <v>36899.9140004172</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>2707.9650008773497</v>
-      </c>
-      <c r="Z3" s="12">
+      <c r="W3" s="9"/>
+      <c r="X3" s="39">
+        <v>37223.14</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>2707.9699999999993</v>
+      </c>
+      <c r="Z3" s="10">
         <f>(X3-Y3)*100/X3</f>
-        <v>92.661324357431468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+        <v>92.72503609313992</v>
+      </c>
+      <c r="AA3" s="42">
+        <v>286.52</v>
+      </c>
+      <c r="AB3">
+        <v>46.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1443,59 +1362,65 @@
       <c r="G4">
         <v>34.223300970899999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="42">
         <v>273.3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="42">
         <v>43.34</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <f>SUMIF($C$3:$C$100, "코드 삽입", $D$3:$D$100)</f>
         <v>53.487089334642</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <f>SUMIF($C$3:$C$100, "코드 삽입",F3:F100)</f>
         <v>67.620776436089997</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <f>(L4-M4)*100/L4</f>
         <v>-26.424483510442261</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="13">
+      <c r="O4" s="12"/>
+      <c r="P4" s="11">
         <f>SUMIF($C$3:$C$100, "코드 삽입", $E$3:$E$100)</f>
         <v>58.62901463171</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <f>SUMIF($C$3:$C$100, "코드 삽입", $G$3:$G$100)</f>
         <v>71.516880332190013</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="12">
         <f>(P4-Q4)*100/P4</f>
         <v>-21.982060898409678</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12">
         <f>(L4+P4)/2</f>
         <v>56.058051983176</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="12">
         <f>(M4+Q4)/2</f>
         <v>69.568828384140005</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="12">
         <f>(T4-U4)*100/T4</f>
         <v>-24.101401891415751</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="42"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="42">
+        <v>273.3</v>
+      </c>
+      <c r="AB4">
+        <v>43.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1517,59 +1442,65 @@
       <c r="G5">
         <v>33.737864077700003</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="42">
         <v>252.78</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="42">
         <v>39.82</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <f>SUMIF($C$3:$C$100, "코드 삭제", $D$3:$D$100)</f>
         <v>79.039520490670981</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <f>SUMIF($C$3:$C$100, "코드 삭제", F3:F100)</f>
         <v>115.53450259614198</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <f>(L5-M5)*100/L5</f>
         <v>-46.173081363491434</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="16">
+      <c r="O5" s="15"/>
+      <c r="P5" s="14">
         <f>SUMIF($C$3:$C$100, "코드 삭제", $E$3:$E$100)</f>
         <v>113.520815613709</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <f>SUMIF($C$3:$C$100, "코드 삭제", $G$3:$G$100)</f>
         <v>128.87505833142399</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="15">
         <f>(P5-Q5)*100/P5</f>
         <v>-13.525486612043663</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17">
+      <c r="S5" s="15"/>
+      <c r="T5" s="15">
         <f>(L5+P5)/2</f>
         <v>96.280168052189993</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="15">
         <f>(M5+Q5)/2</f>
         <v>122.20478046378298</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="15">
         <f>(T5-U5)*100/T5</f>
         <v>-26.926222643836887</v>
       </c>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="44"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="42">
+        <v>252.78</v>
+      </c>
+      <c r="AB5">
+        <v>39.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1591,59 +1522,65 @@
       <c r="G6">
         <v>29.683698296799999</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="42">
         <v>264.77</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="42">
         <v>35.909999999999997</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="15">
         <f>SUM(L7:L9)</f>
         <v>963.91554938113904</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <f>SUM(M7:M9)</f>
         <v>726.59163423606003</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <f>SUM(N7:N9)</f>
         <v>83.356689907883663</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
         <f>SUM(P7:P9)</f>
         <v>1273.1585186701691</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="15">
         <f>SUM(Q7:Q9)</f>
         <v>1021.1906951923179</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="15">
         <f>SUM(R7:R9)</f>
         <v>47.55813003530811</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17">
+      <c r="S6" s="15"/>
+      <c r="T6" s="15">
         <f>SUM(T7:T9)</f>
         <v>1118.5370340256541</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="15">
         <f>SUM(U7:U9)</f>
         <v>873.8911647141889</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="15">
         <f>SUM(V7:V9)</f>
         <v>64.400745870169317</v>
       </c>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="44"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="42">
+        <v>264.77</v>
+      </c>
+      <c r="AB6">
+        <v>35.909999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1665,59 +1602,65 @@
       <c r="G7">
         <v>17.718446601899998</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="42">
         <v>272.62</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="42">
         <v>41.66</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f>SUMIF($C$3:$C$100, "return 수정", $D$3:$D$100)</f>
         <v>192.53241834907999</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <f>SUMIF($C$3:$C$100, "return 수정", F3:F100)</f>
         <v>30.874854067610002</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="15">
         <f>(L7-M7)*100/L7</f>
         <v>83.963815375948343</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14">
         <f>SUMIF($C$3:$C$100, "return 수정", $E$3:$E$100)</f>
         <v>237.77339901470003</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <f>SUMIF($C$3:$C$100, "return 수정", $G$3:$G$100)</f>
         <v>58.282183433477996</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <f>(P7-Q7)*100/P7</f>
         <v>75.488349968923657</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17">
-        <f>(L7+P7)/2</f>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15">
+        <f t="shared" ref="T7:U9" si="0">(L7+P7)/2</f>
         <v>215.15290868189001</v>
       </c>
-      <c r="U7" s="17">
-        <f>(M7+Q7)/2</f>
+      <c r="U7" s="15">
+        <f t="shared" si="0"/>
         <v>44.578518750543999</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="15">
         <f>(T7-U7)*100/T7</f>
         <v>79.280540977275535</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="44"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="42">
+        <v>272.62</v>
+      </c>
+      <c r="AB7">
+        <v>41.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1739,59 +1682,65 @@
       <c r="G8">
         <v>36.231884057999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="42">
         <v>234.69</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="42">
         <v>40.72</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <f>SUMIF($C$3:$C$100, "조건 수정", $D$3:$D$100)</f>
         <v>145.77888779897395</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <f>SUMIF($C$3:$C$100, "조건 수정", F3:F100)</f>
         <v>169.921534921073</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="15">
         <f>(L8-M8)*100/L8</f>
         <v>-16.561140976319738</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16">
+      <c r="O8" s="15"/>
+      <c r="P8" s="14">
         <f>SUMIF($C$3:$C$100, "조건 수정", $E$3:$E$100)</f>
         <v>160.03042808006597</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <f>SUMIF($C$3:$C$100, "조건 수정", $G$3:$G$100)</f>
         <v>230.94101084709703</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <f>(P8-Q8)*100/P8</f>
         <v>-44.310687422240271</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17">
-        <f>(L8+P8)/2</f>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15">
+        <f t="shared" si="0"/>
         <v>152.90465793951995</v>
       </c>
-      <c r="U8" s="17">
-        <f>(M8+Q8)/2</f>
+      <c r="U8" s="15">
+        <f t="shared" si="0"/>
         <v>200.43127288408502</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="15">
         <f>(T8-U8)*100/T8</f>
         <v>-31.082516114953012</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="44"/>
-    </row>
-    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="42">
+        <v>234.69</v>
+      </c>
+      <c r="AB8">
+        <v>40.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1813,59 +1762,65 @@
       <c r="G9">
         <v>36.650485436899999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="42">
         <v>236.79</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="42">
         <v>43.61</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="27">
         <f>SUMIF($C$3:$C$100, "계산 수정", $D$3:$D$100)</f>
         <v>625.60424323308507</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="27">
         <f>SUMIF($C$3:$C$100, "계산 수정", F3:F100)</f>
         <v>525.79524524737701</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="28">
         <f>(L9-M9)*100/L9</f>
         <v>15.954015508255054</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="46">
+      <c r="O9" s="28"/>
+      <c r="P9" s="27">
         <f>SUMIF($C$3:$C$100, "계산 수정", $E$3:$E$100)</f>
         <v>875.35469157540297</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="27">
         <f>SUMIF($C$3:$C$100, "계산 수정", $G$3:$G$100)</f>
         <v>731.96750091174283</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="28">
         <f>(P9-Q9)*100/P9</f>
         <v>16.380467488624728</v>
       </c>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47">
-        <f>(L9+P9)/2</f>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28">
+        <f t="shared" si="0"/>
         <v>750.47946740424402</v>
       </c>
-      <c r="U9" s="47">
-        <f>(M9+Q9)/2</f>
+      <c r="U9" s="28">
+        <f t="shared" si="0"/>
         <v>628.88137307955992</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="28">
         <f>(T9-U9)*100/T9</f>
         <v>16.202721007846783</v>
       </c>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="48"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="42">
+        <v>236.79</v>
+      </c>
+      <c r="AB9">
+        <v>43.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1887,14 +1842,20 @@
       <c r="G10">
         <v>0.24271844660200001</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="42">
         <v>228.35</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="42">
         <v>42.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA10" s="42">
+        <v>228.35</v>
+      </c>
+      <c r="AB10">
+        <v>42.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1916,14 +1877,20 @@
       <c r="G11">
         <v>0.24271844660200001</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="42">
         <v>234.55</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="42">
         <v>39.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA11" s="42">
+        <v>234.55</v>
+      </c>
+      <c r="AB11">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1945,59 +1912,65 @@
       <c r="G12">
         <v>0.65146579804600002</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="42">
         <v>351.41</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="42">
         <v>30.77</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="14">
         <f>SUMIF($A$3:$A$100, "schedule", $D$3:$D$100)</f>
         <v>75.348273882389989</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="14">
         <f>SUMIF($A$3:$A$100, "schedule", $F$3:$F$100)</f>
         <v>200.62313910730398</v>
       </c>
-      <c r="N12" s="17">
-        <f>(L12-M12)*100/L12</f>
+      <c r="N12" s="15">
+        <f t="shared" ref="N12:N17" si="1">(L12-M12)*100/L12</f>
         <v>-166.26109500591039</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16">
+      <c r="O12" s="15"/>
+      <c r="P12" s="14">
         <f>SUMIF($A$3:$A$100, "schedule", $E$3:$E$100)</f>
         <v>104.95934237078001</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="14">
         <f>SUMIF($A$3:$A$100, "schedule", $G$3:$G$100)</f>
         <v>201.837912451904</v>
       </c>
-      <c r="R12" s="17">
-        <f>(P12-Q12)*100/P12</f>
+      <c r="R12" s="15">
+        <f t="shared" ref="R12:R17" si="2">(P12-Q12)*100/P12</f>
         <v>-92.301045236059295</v>
       </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="16">
-        <f>(L12+P12)/2</f>
+      <c r="S12" s="15"/>
+      <c r="T12" s="14">
+        <f t="shared" ref="T12:U17" si="3">(L12+P12)/2</f>
         <v>90.153808126585005</v>
       </c>
-      <c r="U12" s="16">
-        <f>(M12+Q12)/2</f>
+      <c r="U12" s="14">
+        <f t="shared" si="3"/>
         <v>201.23052577960399</v>
       </c>
-      <c r="V12" s="17">
-        <f>(T12-U12)*100/T12</f>
+      <c r="V12" s="15">
+        <f t="shared" ref="V12:V17" si="4">(T12-U12)*100/T12</f>
         <v>-123.20801523664548</v>
       </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="42">
+        <v>351.41</v>
+      </c>
+      <c r="AB12">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2019,59 +1992,65 @@
       <c r="G13">
         <v>0.32573289902300001</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="42">
         <v>258.88</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="42">
         <v>31.26</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="14">
         <f>SUMIF($A$3:$A$100, "schedule2", $D$3:$D$100)</f>
         <v>114.52789881122301</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <f>SUMIF($A$3:$A$100, "schedule2", $F$3:$F$100)</f>
         <v>148.33009010524898</v>
       </c>
-      <c r="N13" s="17">
-        <f>(L13-M13)*100/L13</f>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
         <v>-29.514373043499489</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16">
+      <c r="O13" s="15"/>
+      <c r="P13" s="14">
         <f>SUMIF($A$3:$A$100, "schedule2", $E$3:$E$100)</f>
         <v>127.53500571090301</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="14">
         <f>SUMIF($A$3:$A$100, "schedule2", $G$3:$G$100)</f>
         <v>169.80836752828901</v>
       </c>
-      <c r="R13" s="17">
-        <f>(P13-Q13)*100/P13</f>
+      <c r="R13" s="15">
+        <f t="shared" si="2"/>
         <v>-33.146477378306216</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="16">
-        <f>(L13+P13)/2</f>
+      <c r="S13" s="15"/>
+      <c r="T13" s="14">
+        <f t="shared" si="3"/>
         <v>121.03145226106301</v>
       </c>
-      <c r="U13" s="16">
-        <f>(M13+Q13)/2</f>
+      <c r="U13" s="14">
+        <f t="shared" si="3"/>
         <v>159.069228816769</v>
       </c>
-      <c r="V13" s="17">
-        <f>(T13-U13)*100/T13</f>
+      <c r="V13" s="15">
+        <f t="shared" si="4"/>
         <v>-31.428009699213622</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="42">
+        <v>258.88</v>
+      </c>
+      <c r="AB13">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2093,59 +2072,65 @@
       <c r="G14">
         <v>39.739413680799998</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="42">
         <v>199.22</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="42">
         <v>35.35</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="14">
         <f>SUMIF($A$3:$A$100, "tcas", $D$3:$D$100)</f>
         <v>677.64504975648208</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <f>SUMIF($A$3:$A$100, "tcas", $F$3:$F$100)</f>
         <v>381.03673184600706</v>
       </c>
-      <c r="N14" s="17">
-        <f>(L14-M14)*100/L14</f>
+      <c r="N14" s="15">
+        <f t="shared" si="1"/>
         <v>43.770454460939973</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="16">
+      <c r="O14" s="15"/>
+      <c r="P14" s="14">
         <f>SUMIF($A$3:$A$100, "tcas", $E$3:$E$100)</f>
         <v>964.33414007194972</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="14">
         <f>SUMIF($A$3:$A$100, "tcas", $G$3:$G$100)</f>
         <v>606.47384897002189</v>
       </c>
-      <c r="R14" s="17">
-        <f>(P14-Q14)*100/P14</f>
+      <c r="R14" s="15">
+        <f t="shared" si="2"/>
         <v>37.109573977669974</v>
       </c>
-      <c r="S14" s="17"/>
-      <c r="T14" s="16">
-        <f>(L14+P14)/2</f>
+      <c r="S14" s="15"/>
+      <c r="T14" s="14">
+        <f t="shared" si="3"/>
         <v>820.9895949142159</v>
       </c>
-      <c r="U14" s="16">
-        <f>(M14+Q14)/2</f>
+      <c r="U14" s="14">
+        <f t="shared" si="3"/>
         <v>493.7552904080145</v>
       </c>
-      <c r="V14" s="17">
-        <f>(T14-U14)*100/T14</f>
+      <c r="V14" s="15">
+        <f t="shared" si="4"/>
         <v>39.858520319053945</v>
       </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="42">
+        <v>199.22</v>
+      </c>
+      <c r="AB14">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2167,59 +2152,65 @@
       <c r="G15">
         <v>11.074918566799999</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="42">
         <v>217.42</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="42">
         <v>32.770000000000003</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="14">
         <f>SUMIF($A$3:$A$100, "tot_info", $D$3:$D$100)</f>
         <v>188.17733990142003</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="14">
         <f>SUMIF($A$3:$A$100, "tot_info", $F$3:$F$100)</f>
         <v>156.65024630543599</v>
       </c>
-      <c r="N15" s="17">
-        <f>(L15-M15)*100/L15</f>
+      <c r="N15" s="15">
+        <f t="shared" si="1"/>
         <v>16.753926701535935</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="16">
+      <c r="O15" s="15"/>
+      <c r="P15" s="14">
         <f>SUMIF($A$3:$A$100, "tot_info", $E$3:$E$100)</f>
         <v>203.44827586194006</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <f>SUMIF($A$3:$A$100, "tot_info", $G$3:$G$100)</f>
         <v>217.4876847291851</v>
       </c>
-      <c r="R15" s="17">
-        <f>(P15-Q15)*100/P15</f>
+      <c r="R15" s="15">
+        <f t="shared" si="2"/>
         <v>-6.9007263923790543</v>
       </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="16">
-        <f>(L15+P15)/2</f>
+      <c r="S15" s="15"/>
+      <c r="T15" s="14">
+        <f t="shared" si="3"/>
         <v>195.81280788168004</v>
       </c>
-      <c r="U15" s="16">
-        <f>(M15+Q15)/2</f>
+      <c r="U15" s="14">
+        <f t="shared" si="3"/>
         <v>187.06896551731055</v>
       </c>
-      <c r="V15" s="17">
-        <f>(T15-U15)*100/T15</f>
+      <c r="V15" s="15">
+        <f t="shared" si="4"/>
         <v>4.4654088049505773</v>
       </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="42">
+        <v>217.42</v>
+      </c>
+      <c r="AB15">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2241,59 +2232,65 @@
       <c r="G16">
         <v>31.4935064935</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="42">
         <v>254.4</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="42">
         <v>28.8</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens", $D$3:$D$100)</f>
         <v>2.307169041226</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens", $F$3:$F$100)</f>
         <v>4.616227655786</v>
       </c>
-      <c r="N16" s="17">
-        <f>(L16-M16)*100/L16</f>
+      <c r="N16" s="15">
+        <f t="shared" si="1"/>
         <v>-100.08190008188545</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="16">
+      <c r="O16" s="15"/>
+      <c r="P16" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens", $E$3:$E$100)</f>
         <v>4.4382928334780001</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens", $G$3:$G$100)</f>
         <v>5.3267072295000002</v>
       </c>
-      <c r="R16" s="17">
-        <f>(P16-Q16)*100/P16</f>
+      <c r="R16" s="15">
+        <f t="shared" si="2"/>
         <v>-20.017029730906867</v>
       </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="16">
-        <f>(L16+P16)/2</f>
+      <c r="S16" s="15"/>
+      <c r="T16" s="14">
+        <f t="shared" si="3"/>
         <v>3.3727309373520002</v>
       </c>
-      <c r="U16" s="16">
-        <f>(M16+Q16)/2</f>
+      <c r="U16" s="14">
+        <f t="shared" si="3"/>
         <v>4.9714674426430001</v>
       </c>
-      <c r="V16" s="17">
-        <f>(T16-U16)*100/T16</f>
+      <c r="V16" s="15">
+        <f t="shared" si="4"/>
         <v>-47.401839488156753</v>
       </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="42">
+        <v>254.4</v>
+      </c>
+      <c r="AB16">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2315,59 +2312,65 @@
       <c r="G17">
         <v>7.4918566775200004</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="42">
         <v>275.64999999999998</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="42">
         <v>34.9</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens2", $D$3:$D$100)</f>
         <v>38.436427813711006</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens2", $E$3:$E$100)</f>
         <v>40.59329206653701</v>
       </c>
-      <c r="N17" s="17">
-        <f>(L17-M17)*100/L17</f>
+      <c r="N17" s="15">
+        <f t="shared" si="1"/>
         <v>-5.611510682729496</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="16">
+      <c r="O17" s="15"/>
+      <c r="P17" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens2", $E$3:$E$100)</f>
         <v>40.59329206653701</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <f>SUMIF($A$3:$A$100, "printtokens2", $G$3:$G$100)</f>
         <v>20.648112947031997</v>
       </c>
-      <c r="R17" s="17">
-        <f>(P17-Q17)*100/P17</f>
+      <c r="R17" s="15">
+        <f t="shared" si="2"/>
         <v>49.134174894740255</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16">
-        <f>(L17+P17)/2</f>
+      <c r="S17" s="15"/>
+      <c r="T17" s="14">
+        <f t="shared" si="3"/>
         <v>39.514859940124012</v>
       </c>
-      <c r="U17" s="16">
-        <f>(M17+Q17)/2</f>
+      <c r="U17" s="14">
+        <f t="shared" si="3"/>
         <v>30.620702506784504</v>
       </c>
-      <c r="V17" s="17">
-        <f>(T17-U17)*100/T17</f>
+      <c r="V17" s="15">
+        <f t="shared" si="4"/>
         <v>22.508386583722242</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-    </row>
-    <row r="18" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="42">
+        <v>275.64999999999998</v>
+      </c>
+      <c r="AB17">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2389,12 +2392,20 @@
       <c r="G18">
         <v>37.337662337700003</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+      <c r="H18" s="42">
+        <v>156.93599986999999</v>
+      </c>
+      <c r="I18" s="42">
         <v>44.63</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA18" s="42">
+        <v>156.94</v>
+      </c>
+      <c r="AB18">
+        <v>44.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2416,40 +2427,29 @@
       <c r="G19">
         <v>13.3550488599</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="H19" s="42">
+        <v>166.273000002</v>
+      </c>
+      <c r="I19" s="42">
         <v>34.93</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA19" s="42">
+        <v>166.27</v>
+      </c>
+      <c r="AB19">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="K20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="21"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA20" s="42"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2471,30 +2471,20 @@
       <c r="G21">
         <v>28.338762214999999</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="42">
         <v>153.91999999999999</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="42">
         <v>42.26</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="24"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA21" s="42">
+        <v>153.91999999999999</v>
+      </c>
+      <c r="AB21">
+        <v>42.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2516,30 +2506,20 @@
       <c r="G22">
         <v>2.8901734104000001</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="42">
         <v>5.83</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="42">
         <v>8.0329999923699997</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="24"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA22" s="42">
+        <v>5.83</v>
+      </c>
+      <c r="AB22">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2561,30 +2541,20 @@
       <c r="G23">
         <v>9.8265895953799998</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="42">
         <v>7.25</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="42">
         <v>9.1080000400499994</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="24"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA23" s="42">
+        <v>7.25</v>
+      </c>
+      <c r="AB23">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2606,30 +2576,20 @@
       <c r="G24">
         <v>26.5895953757</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="42">
         <v>7.26</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="42">
         <v>8.4360001087200001</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="24"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA24" s="42">
+        <v>7.26</v>
+      </c>
+      <c r="AB24">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2651,30 +2611,20 @@
       <c r="G25">
         <v>1.7341040462399999</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="42">
         <v>7.45</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="42">
         <v>11.842000007599999</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA25" s="42">
+        <v>7.45</v>
+      </c>
+      <c r="AB25">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2696,30 +2646,20 @@
       <c r="G26">
         <v>32.369942196499998</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="42">
         <v>7.65</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="42">
         <v>8.9359998702999999</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="24"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA26" s="42">
+        <v>7.65</v>
+      </c>
+      <c r="AB26">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2741,30 +2681,20 @@
       <c r="G27">
         <v>5.7803468208100002</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="42">
         <v>6.75</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="42">
         <v>8.4880001544999999</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="24"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA27" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="AB27">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2786,30 +2716,20 @@
       <c r="G28">
         <v>30.057803468199999</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="42">
         <v>7.68</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="42">
         <v>8.3110001087200001</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA28" s="42">
+        <v>7.68</v>
+      </c>
+      <c r="AB28">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2831,30 +2751,20 @@
       <c r="G29">
         <v>30.6358381503</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="42">
         <v>6.4</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="42">
         <v>8.7039999961899994</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="24"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA29" s="42">
+        <v>6.4</v>
+      </c>
+      <c r="AB29">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2876,30 +2786,20 @@
       <c r="G30">
         <v>11.6279069767</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="42">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="42">
         <v>8.8210000991800008</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="27"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA30" s="42">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="AB30">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2921,14 +2821,20 @@
       <c r="G31">
         <v>5.1428571428599996</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="42">
         <v>12.54</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="42">
         <v>9.0180001258899996</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA31" s="42">
+        <v>12.54</v>
+      </c>
+      <c r="AB31">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2950,14 +2856,20 @@
       <c r="G32">
         <v>6.7039106145299998</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="42">
         <v>7.16</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="42">
         <v>9.2750000953700003</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA32" s="42">
+        <v>7.16</v>
+      </c>
+      <c r="AB32">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2979,14 +2891,20 @@
       <c r="G33">
         <v>27.7456647399</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="42">
         <v>7.45</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="42">
         <v>8.3420000076300003</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA33" s="42">
+        <v>7.45</v>
+      </c>
+      <c r="AB33">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3008,14 +2926,20 @@
       <c r="G34">
         <v>28.901734103999999</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="42">
         <v>7.61</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="42">
         <v>8.2699999809300007</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA34" s="42">
+        <v>7.61</v>
+      </c>
+      <c r="AB34">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3037,14 +2961,20 @@
       <c r="G35">
         <v>11.5606936416</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="42">
         <v>10.24</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="42">
         <v>8.3320000171699995</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA35" s="42">
+        <v>10.24</v>
+      </c>
+      <c r="AB35">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3066,14 +2996,20 @@
       <c r="G36">
         <v>32.369942196499998</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="42">
         <v>7.67</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="42">
         <v>8.3150000572200007</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA36" s="42">
+        <v>7.67</v>
+      </c>
+      <c r="AB36">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -3095,14 +3031,20 @@
       <c r="G37">
         <v>22.543352601199999</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="42">
         <v>6.73</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="42">
         <v>8.4789998531300004</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA37" s="42">
+        <v>6.73</v>
+      </c>
+      <c r="AB37">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -3124,14 +3066,20 @@
       <c r="G38">
         <v>30.057803468199999</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="42">
         <v>6.7</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="42">
         <v>8.0820000171699995</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA38" s="42">
+        <v>6.7</v>
+      </c>
+      <c r="AB38">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -3153,14 +3101,20 @@
       <c r="G39">
         <v>33.526011560699999</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="42">
         <v>6.7</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="42">
         <v>8.4079999923699997</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA39" s="42">
+        <v>6.7</v>
+      </c>
+      <c r="AB39">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -3182,14 +3136,20 @@
       <c r="G40">
         <v>28.901734103999999</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="42">
         <v>6.79</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="42">
         <v>8.3210000991800008</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA40" s="42">
+        <v>6.79</v>
+      </c>
+      <c r="AB40">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3211,14 +3171,20 @@
       <c r="G41">
         <v>12.716763005800001</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="42">
         <v>8.67</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="42">
         <v>8.6270000934599995</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA41" s="42">
+        <v>8.67</v>
+      </c>
+      <c r="AB41">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -3240,14 +3206,20 @@
       <c r="G42">
         <v>12.138728323700001</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="42">
         <v>7.42</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="42">
         <v>7.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA42" s="42">
+        <v>7.42</v>
+      </c>
+      <c r="AB42">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -3269,14 +3241,20 @@
       <c r="G43">
         <v>12.716763005800001</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="42">
         <v>6.63</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="42">
         <v>7.21</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA43" s="42">
+        <v>6.63</v>
+      </c>
+      <c r="AB43">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -3298,14 +3276,20 @@
       <c r="G44">
         <v>10.9826589595</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="42">
         <v>7.35</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="42">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA44" s="42">
+        <v>7.35</v>
+      </c>
+      <c r="AB44">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -3327,14 +3311,20 @@
       <c r="G45">
         <v>11.5606936416</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="42">
         <v>7.34</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="42">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA45" s="42">
+        <v>7.34</v>
+      </c>
+      <c r="AB45">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -3356,14 +3346,20 @@
       <c r="G46">
         <v>0.57803468208099995</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="42">
         <v>6.81</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="42">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA46" s="42">
+        <v>6.81</v>
+      </c>
+      <c r="AB46">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -3385,14 +3381,20 @@
       <c r="G47">
         <v>30.6358381503</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="42">
         <v>6.52</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="42">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA47" s="42">
+        <v>6.52</v>
+      </c>
+      <c r="AB47">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -3414,14 +3416,20 @@
       <c r="G48">
         <v>32.369942196499998</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="42">
         <v>7</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="42">
         <v>9.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA48" s="42">
+        <v>7</v>
+      </c>
+      <c r="AB48">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3443,14 +3451,20 @@
       <c r="G49">
         <v>5.7803468208100002</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="42">
         <v>6.71</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="42">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA49" s="42">
+        <v>6.71</v>
+      </c>
+      <c r="AB49">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3472,14 +3486,20 @@
       <c r="G50">
         <v>9.2485549132900005</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="42">
         <v>6.68</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="42">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA50" s="42">
+        <v>6.68</v>
+      </c>
+      <c r="AB50">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -3501,14 +3521,20 @@
       <c r="G51">
         <v>9.8265895953799998</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="42">
         <v>6.88</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="42">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA51" s="42">
+        <v>6.88</v>
+      </c>
+      <c r="AB51">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -3530,14 +3556,20 @@
       <c r="G52">
         <v>14.285714285699999</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="42">
         <v>6.92</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="42">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA52" s="42">
+        <v>6.92</v>
+      </c>
+      <c r="AB52">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3559,14 +3591,20 @@
       <c r="G53">
         <v>6.2857142857100001</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="42">
         <v>6.65</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="42">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA53" s="42">
+        <v>6.65</v>
+      </c>
+      <c r="AB53">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3588,14 +3626,20 @@
       <c r="G54">
         <v>35.260115606900001</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="42">
         <v>6.42</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="42">
         <v>7.13</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA54" s="42">
+        <v>6.42</v>
+      </c>
+      <c r="AB54">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3617,14 +3661,20 @@
       <c r="G55">
         <v>6.3583815028900004</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="42">
         <v>7.02</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="42">
         <v>7.51</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA55" s="42">
+        <v>7.02</v>
+      </c>
+      <c r="AB55">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3646,14 +3696,20 @@
       <c r="G56">
         <v>5.7803468208100002</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="42">
         <v>6.78</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="42">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA56" s="42">
+        <v>6.78</v>
+      </c>
+      <c r="AB56">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3675,14 +3731,20 @@
       <c r="G57">
         <v>1.1560693641599999</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="42">
         <v>6.75</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="42">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA57" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="AB57">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3704,24 +3766,29 @@
       <c r="G58">
         <v>1.1560693641599999</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="42">
         <v>6.6</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="42">
         <v>7.65</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA58" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="AB58">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA59" s="42"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3743,14 +3810,20 @@
       <c r="G60">
         <v>0.57803468208099995</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="42">
         <v>8.33</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="42">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA60" s="42">
+        <v>8.33</v>
+      </c>
+      <c r="AB60">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3772,14 +3845,20 @@
       <c r="G61">
         <v>6.3583815028900004</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="42">
         <v>7.04</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="42">
         <v>6.86</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA61" s="42">
+        <v>7.04</v>
+      </c>
+      <c r="AB61">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3801,14 +3880,20 @@
       <c r="G62">
         <v>1.7341040462399999</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="42">
         <v>9.11</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="42">
         <v>7.07</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA62" s="42">
+        <v>9.11</v>
+      </c>
+      <c r="AB62">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3830,14 +3915,20 @@
       <c r="G63">
         <v>1.97044334975</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="42">
         <v>49.102999925600002</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="42">
         <v>21.358999967599999</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA63" s="42">
+        <v>49.1</v>
+      </c>
+      <c r="AB63">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -3859,14 +3950,20 @@
       <c r="G64">
         <v>51.9704433498</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="42">
         <v>59.720000028599998</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="42">
         <v>20.204999923700001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA64" s="42">
+        <v>59.72</v>
+      </c>
+      <c r="AB64">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3888,14 +3985,20 @@
       <c r="G65">
         <v>1.47783251232</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="42">
         <v>61.127000093500001</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="42">
         <v>20.027000188799999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA65" s="42">
+        <v>61.13</v>
+      </c>
+      <c r="AB65">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3917,14 +4020,20 @@
       <c r="G66">
         <v>6.4039408867000001</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="42">
         <v>59.064000129699998</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="42">
         <v>18.808000087700002</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA66" s="42">
+        <v>59.06</v>
+      </c>
+      <c r="AB66">
+        <v>18.809999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3946,24 +4055,29 @@
       <c r="G67">
         <v>83.251231527100003</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="42">
         <v>62.568000078200001</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="42">
         <v>20.751999855000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA67" s="42">
+        <v>62.57</v>
+      </c>
+      <c r="AB67">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>35</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA68" s="42"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -3985,14 +4099,20 @@
       <c r="G69">
         <v>5.41871921182</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="42">
         <v>46.6459999084</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="42">
         <v>20.161999940899999</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA69" s="42">
+        <v>46.65</v>
+      </c>
+      <c r="AB69">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -4014,14 +4134,20 @@
       <c r="G70">
         <v>0.49261083743799999</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="42">
         <v>56.975999832200003</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="42">
         <v>19.371999979000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA70" s="42">
+        <v>56.98</v>
+      </c>
+      <c r="AB70">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -4043,24 +4169,29 @@
       <c r="G71">
         <v>14.7783251232</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="42">
         <v>80.754000186900001</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="42">
         <v>21.7640001774</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA71" s="42">
+        <v>80.75</v>
+      </c>
+      <c r="AB71">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA72" s="42"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -4082,14 +4213,20 @@
       <c r="G73">
         <v>0.49261083743799999</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="42">
         <v>61.190999984699999</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="42">
         <v>20.024000167800001</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA73" s="42">
+        <v>61.19</v>
+      </c>
+      <c r="AB73">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -4111,14 +4248,20 @@
       <c r="G74">
         <v>6.4039408867000001</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="42">
         <v>73.142999887499997</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="42">
         <v>22.095999956099998</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA74" s="42">
+        <v>73.14</v>
+      </c>
+      <c r="AB74">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -4140,14 +4283,20 @@
       <c r="G75">
         <v>2.70935960591</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="42">
         <v>57.356999874099998</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="42">
         <v>20.346999883700001</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA75" s="42">
+        <v>57.36</v>
+      </c>
+      <c r="AB75">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -4169,14 +4318,20 @@
       <c r="G76">
         <v>2.21674876847</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="42">
         <v>59.7149999142</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="42">
         <v>20.7969999313</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA76" s="42">
+        <v>59.71</v>
+      </c>
+      <c r="AB76">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -4198,14 +4353,20 @@
       <c r="G77">
         <v>0.246305418719</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="42">
         <v>79.766000032400001</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="42">
         <v>16.871000051500001</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA77" s="42">
+        <v>79.77</v>
+      </c>
+      <c r="AB77">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -4227,14 +4388,20 @@
       <c r="G78">
         <v>13.7931034483</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="42">
         <v>65.567000150699997</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="42">
         <v>17.6040000916</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA78" s="42">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="AB78">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -4256,14 +4423,20 @@
       <c r="G79">
         <v>7.1428571428599996</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="42">
         <v>60.601999998099998</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="42">
         <v>15.370999813099999</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA79" s="42">
+        <v>60.6</v>
+      </c>
+      <c r="AB79">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -4285,24 +4458,29 @@
       <c r="G80">
         <v>6.4039408867000001</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="42">
         <v>75.898000001900002</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="42">
         <v>16.881999969500001</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA80" s="42">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AB80">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA81" s="42"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -4324,24 +4502,29 @@
       <c r="G82">
         <v>6.4039408867000001</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="42">
         <v>82.683000087699995</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="42">
         <v>30.038000106799998</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA82" s="42">
+        <v>82.68</v>
+      </c>
+      <c r="AB82">
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83" t="s">
         <v>50</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA83" s="42"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -4363,14 +4546,20 @@
       <c r="G84">
         <v>2.21674876847</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="42">
         <v>83.446000099200006</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="42">
         <v>19.571000099199999</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA84" s="42">
+        <v>83.45</v>
+      </c>
+      <c r="AB84">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -4392,14 +4581,20 @@
       <c r="G85">
         <v>3.69458128079</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="42">
         <v>84.468000173600004</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="42">
         <v>20.878999948499999</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA85" s="42">
+        <v>84.47</v>
+      </c>
+      <c r="AB85">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -4421,14 +4616,20 @@
       <c r="G86">
         <v>4.7619047619000003</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="42">
         <v>2112.1879999600001</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="42">
         <v>79.34</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA86" s="42">
+        <v>2112.19</v>
+      </c>
+      <c r="AB86">
+        <v>79.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -4450,14 +4651,20 @@
       <c r="G87">
         <v>0.39138943248500002</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="42">
         <v>1882.0820000199999</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="42">
         <v>85.97</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA87" s="42">
+        <v>1882.08</v>
+      </c>
+      <c r="AB87">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -4479,14 +4686,20 @@
       <c r="G88">
         <v>2.3575638506900001</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="42">
         <v>1915.8600001299999</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="42">
         <v>78.16</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA88" s="42">
+        <v>1915.86</v>
+      </c>
+      <c r="AB88">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -4508,14 +4721,20 @@
       <c r="G89">
         <v>8.6274509803899999</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="42">
         <v>2172.8360001999999</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="42">
         <v>80.430000000000007</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA89" s="42">
+        <v>2172.84</v>
+      </c>
+      <c r="AB89">
+        <v>80.430000000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -4537,14 +4756,20 @@
       <c r="G90">
         <v>0.19607843137299999</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="42">
         <v>1789.01999998</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="42">
         <v>72.19</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA90" s="42">
+        <v>1789.02</v>
+      </c>
+      <c r="AB90">
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -4566,14 +4791,20 @@
       <c r="G91">
         <v>0.19607843137299999</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="42">
         <v>1719.8889999400001</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="42">
         <v>73.06</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA91" s="42">
+        <v>1719.89</v>
+      </c>
+      <c r="AB91">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -4595,14 +4826,20 @@
       <c r="G92">
         <v>0.19607843137299999</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="42">
         <v>2100.8489999799999</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="42">
         <v>77.739999999999995</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA92" s="42">
+        <v>2100.85</v>
+      </c>
+      <c r="AB92">
+        <v>77.739999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -4624,14 +4861,20 @@
       <c r="G93">
         <v>3.3333333333300001</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="42">
         <v>2132.1500000999999</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="42">
         <v>80.510000000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA93" s="42">
+        <v>2132.15</v>
+      </c>
+      <c r="AB93">
+        <v>80.510000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -4653,14 +4896,20 @@
       <c r="G94">
         <v>0.392156862745</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="42">
         <v>1713.71700001</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="42">
         <v>76.959999999999994</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA94" s="42">
+        <v>1713.72</v>
+      </c>
+      <c r="AB94">
+        <v>76.959999999999994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -4682,14 +4931,20 @@
       <c r="G95">
         <v>0.19607843137299999</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="42">
         <v>1513.59299994</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="42">
         <v>77.319999999999993</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA95" s="42">
+        <v>1513.59</v>
+      </c>
+      <c r="AB95">
+        <v>77.319999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -4711,14 +4966,20 @@
       <c r="G96">
         <v>2.3090586145600001</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="42">
         <v>2764.1489999300002</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="42">
         <v>84.930999994299995</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA96" s="42">
+        <v>2764.15</v>
+      </c>
+      <c r="AB96">
+        <v>84.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -4740,14 +5001,20 @@
       <c r="G97">
         <v>1.06382978723</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="42">
         <v>2425.08899999</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="42">
         <v>90.947000026699996</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA97" s="42">
+        <v>2425.09</v>
+      </c>
+      <c r="AB97">
+        <v>90.95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -4769,14 +5036,20 @@
       <c r="G98">
         <v>0.177619893428</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="42">
         <v>2628.0820000200001</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="42">
         <v>113.52</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA98" s="42">
+        <v>2628.08</v>
+      </c>
+      <c r="AB98">
+        <v>113.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -4798,14 +5071,20 @@
       <c r="G99">
         <v>1.0657193605699999</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="42">
         <v>2258.3450000299999</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="42">
         <v>117.35</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="AA99" s="42">
+        <v>2258.35</v>
+      </c>
+      <c r="AB99">
+        <v>117.35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -4827,28 +5106,44 @@
       <c r="G100">
         <v>0.71047957371199999</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="42">
         <v>2222.6309998000002</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="42">
         <v>122.72</v>
       </c>
+      <c r="AA100" s="42">
+        <v>2222.63</v>
+      </c>
+      <c r="AB100">
+        <v>122.72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AA101" s="42">
+        <f>SUM(AA3:AA100)</f>
+        <v>37223.14</v>
+      </c>
+      <c r="AB101" s="42">
+        <f>SUM(AB3:AB100)</f>
+        <v>2707.9699999999993</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="K20:Z30"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="V1:V2"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>